--- a/graph_generation/results_prelim/hermes_llama2/level_1/k_0.xlsx
+++ b/graph_generation/results_prelim/hermes_llama2/level_1/k_0.xlsx
@@ -32,7 +32,7 @@
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 10 nodes labelled A to J. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
-what is the shortest path from node A to node J? Return the sequence of nodes in response.
+What is the shortest path from node A to node J? Return the sequence of nodes in response.
    A B C D E F G H I J
  A 0 1 0 0 0 0 0 0 0 0
  B 1 0 1 0 0 0 0 0 0 0
@@ -55,15 +55,27 @@
 2. Select the node with the smallest distance (A) and mark it as visited.
 3. Update the distances of its neighbors (B and C) by adding the distance to the current node (A) and the weight of the edge connecting them. If the new distance is smaller than the current distance, update the distance.
 4. Repeat steps 2-3 until all nodes are visited or the target node (J) is visited.
-Following this algorithm, we get the following sequence of nodes:
-A -&gt; B -&gt; E -&gt; I -&gt; J
-So, the shortest path from node A to node J is A -&gt; B -&gt; E -&gt; I -&gt; J.</t>
-  </si>
-  <si>
-    <t>Wrong</t>
-  </si>
-  <si>
-    <t>1/10</t>
+Following the algorithm:
+1. Unvisited nodes: {A, B, C, D, E, F, G, H, I, J}
+   Distances: A=0, B=∞, C=∞, D=∞, E=∞, F=∞, G=∞, H=∞, I=∞, J=∞
+2. Select node A (smallest distance), mark it visited.
+   Unvisited nodes: {B, C, D, E, F, G, H, I, J}
+3. Update distances:
+   Distances: A=0, B=1, C=1, D=2, E=2, F=2, G=2, H=2, I=2, J=∞
+4. Select node C (smallest distance), mark it visited.
+   Unvisited nodes: {B, D, E, F, G, H, I, J}
+5. Update distances:
+   Distances: A=0, B=1, C=1, D=2, E=2, F=2, G=2, H=2, I=2, J=∞
+6. Select node B (smallest distance), mark it visited.
+   Unvisited nodes: {D, E, F, G, H, I, J}
+7. Update distances:
+   Distances: A=0, B=1, C=1, D=2, E=2, F=2, G=2, H=2,</t>
+  </si>
+  <si>
+    <t>Correct</t>
+  </si>
+  <si>
+    <t>5/10</t>
   </si>
 </sst>
 </file>
